--- a/AcousticsArrayTestLog.xlsx
+++ b/AcousticsArrayTestLog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
   <si>
     <t>Date</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>1 mic not working, working on diagnosis; ai0 not connected</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Data Collection</t>
+  </si>
+  <si>
+    <t>All mics working; ai0 not connected; Data located in "Testing 20JUL23" folder</t>
   </si>
 </sst>
 </file>
@@ -194,7 +203,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -501,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM3"/>
+  <dimension ref="A1:AM4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,13 +904,141 @@
       </c>
       <c r="AM3" s="9"/>
     </row>
+    <row r="4" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>45127</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM4" s="9"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:AL3">
+  <conditionalFormatting sqref="G1:AL2 G4:AL4">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"NC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:AM2 G4:AM4">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AL3">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"NC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:AM3">
+  <conditionalFormatting sqref="G3:AM3">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>

--- a/AcousticsArrayTestLog.xlsx
+++ b/AcousticsArrayTestLog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>All mics working; ai0 not connected; Data located in "Testing 20JUL23" folder</t>
+  </si>
+  <si>
+    <t>Mic 31 not working; ai0 not connected; Data located in "Testing 26JUL23" folder; 5 bats tested</t>
   </si>
 </sst>
 </file>
@@ -203,7 +206,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -540,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM4"/>
+  <dimension ref="A1:AM5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1019,13 +1052,141 @@
       </c>
       <c r="AM4" s="9"/>
     </row>
+    <row r="5" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>45133</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM5" s="9"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:AL2 G4:AL4">
+  <conditionalFormatting sqref="G1:AL2 G5:AL5">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"NC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:AM2 G5:AM5">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AL3">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"NC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:AM2 G4:AM4">
+  <conditionalFormatting sqref="G3:AM3">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -1033,12 +1194,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AL3">
+  <conditionalFormatting sqref="G4:AL4">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"NC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AM3">
+  <conditionalFormatting sqref="G4:AM4">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>

--- a/AcousticsArrayTestLog.xlsx
+++ b/AcousticsArrayTestLog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Mic 31 not working; ai0 not connected; Data located in "Testing 26JUL23" folder; 5 bats tested</t>
+  </si>
+  <si>
+    <t>Mic 31 not working; ai0 not connected; Data located in "Testing 28JUL23" folder; Yohan tested</t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -573,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AM6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,13 +1200,141 @@
       </c>
       <c r="AM5" s="9"/>
     </row>
+    <row r="6" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>45135</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM6" s="9"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:AL2 G5:AL5">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"NC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:AM2 G5:AM5">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AL3">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"NC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:AM2 G5:AM5">
+  <conditionalFormatting sqref="G3:AM3">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -1181,12 +1342,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AL3">
+  <conditionalFormatting sqref="G4:AL4">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"NC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AM3">
+  <conditionalFormatting sqref="G4:AM4">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -1194,12 +1355,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:AL4">
+  <conditionalFormatting sqref="G6:AL6">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"NC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:AM4">
+  <conditionalFormatting sqref="G6:AM6">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>

--- a/AcousticsArrayTestLog.xlsx
+++ b/AcousticsArrayTestLog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Mic 31 not working; ai0 not connected; Data located in "Testing 28JUL23" folder; Yohan tested</t>
+  </si>
+  <si>
+    <t>Mics 3 &amp; 31 not working; ai0 not connected; Data located in "Testing 2AUG2023" folder; 5 Bats Tested - 5th Bat was Rhino</t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -606,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM6"/>
+  <dimension ref="A1:AM7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,13 +1348,141 @@
       </c>
       <c r="AM6" s="9"/>
     </row>
+    <row r="7" spans="1:39" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>45140</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM7" s="9"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:AL2 G5:AL5">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"NC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:AM2 G5:AM5">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AL3">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"NC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:AM2 G5:AM5">
+  <conditionalFormatting sqref="G3:AM3">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -1329,12 +1490,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AL3">
+  <conditionalFormatting sqref="G4:AL4">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"NC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AM3">
+  <conditionalFormatting sqref="G4:AM4">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -1342,12 +1503,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:AL4">
+  <conditionalFormatting sqref="G7:AL7">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"NC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:AM4">
+  <conditionalFormatting sqref="G7:AM7">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>

--- a/AcousticsArrayTestLog.xlsx
+++ b/AcousticsArrayTestLog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="24">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>Mics 3 &amp; 31 not working; ai0 not connected; Data located in "Testing 2AUG2023" folder; 5 Bats Tested - 5th Bat was Rhino</t>
+  </si>
+  <si>
+    <t>Danny Yessayan</t>
+  </si>
+  <si>
+    <t>Mics 3 &amp; 31 not working, recommend replacement; ai0 not connected; Data located in "Testing 9AUG2023" folder; 5 Bats Tested - All Hipposiderids</t>
   </si>
 </sst>
 </file>
@@ -212,7 +218,37 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -639,10 +675,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM7"/>
+  <dimension ref="A1:AM15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,13 +1499,428 @@
       </c>
       <c r="AM7" s="9"/>
     </row>
+    <row r="8" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>45147</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM8" s="9"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="9"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="9"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="9"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="9"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="9"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="9"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="9"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="G1:AL2 G5:AL5">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"NC"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:AM2 G5:AM5">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:AL3">
     <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"NC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:AM2 G5:AM5">
+  <conditionalFormatting sqref="G3:AM3">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -1477,12 +1928,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AL3">
+  <conditionalFormatting sqref="G4:AL4">
     <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
       <formula>"NC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:AM3">
+  <conditionalFormatting sqref="G4:AM4">
     <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -1490,12 +1941,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:AL4">
+  <conditionalFormatting sqref="G15:AL15">
     <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"NC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:AM4">
+  <conditionalFormatting sqref="G15:AM15">
     <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -1503,12 +1954,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:AL7">
+  <conditionalFormatting sqref="G6:AL6">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"NC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7:AM7">
+  <conditionalFormatting sqref="G6:AM6">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
@@ -1516,12 +1967,12 @@
       <formula>"N"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:AL6">
+  <conditionalFormatting sqref="G7:AL14">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"NC"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6:AM6">
+  <conditionalFormatting sqref="G7:AM14">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
